--- a/biology/Zoologie/Hebius_sauteri/Hebius_sauteri.xlsx
+++ b/biology/Zoologie/Hebius_sauteri/Hebius_sauteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hebius sauteri est une espèce de serpents de la famille des Natricidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hebius sauteri est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 580 et 1 400 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 580 et 1 400 m d'altitude :
 en République populaire de Chine, dans les provinces du Jiangxi, du Guangxi, du Guangdong, du Fujian, du Sichuan, du Hubei, d'Anhui, du Chongqing, du Guizhou, du Hainan, du Hunan, du Yunnan et à Hong Kong ;
 à Taïwan ;
 dans le nord du Viêt Nam.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hans Sauter (1871–1943)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hans Sauter (1871–1943).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1909 : Descriptions of Four new Frogs and a new Snake discovered by Mr. H. Sauter in Formosa.  Annals and Magazine of Natural History, sér. 8, vol. 4, p. 492-495 (texte intégral).</t>
         </is>
